--- a/Data/novel_beh_responses.xlsx
+++ b/Data/novel_beh_responses.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bimbi\Dropbox\ABC Paper\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BDAB78-5EC6-4372-BC2F-AE9828F55543}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="19">
   <si>
     <t>Scramble</t>
   </si>
@@ -77,11 +71,14 @@
   <si>
     <t>Alfred</t>
   </si>
+  <si>
+    <t>Victor</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -173,7 +170,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -206,26 +203,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -258,23 +238,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -450,16 +413,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P401"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:Q401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -508,8 +471,11 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>16</v>
       </c>
@@ -558,8 +524,11 @@
       <c r="P2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>256</v>
       </c>
@@ -608,8 +577,11 @@
       <c r="P3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>16</v>
       </c>
@@ -658,8 +630,11 @@
       <c r="P4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>16</v>
       </c>
@@ -708,8 +683,11 @@
       <c r="P5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>256</v>
       </c>
@@ -758,8 +736,11 @@
       <c r="P6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>64</v>
       </c>
@@ -808,8 +789,11 @@
       <c r="P7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>256</v>
       </c>
@@ -858,8 +842,11 @@
       <c r="P8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -908,8 +895,11 @@
       <c r="P9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
@@ -958,8 +948,11 @@
       <c r="P10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1008,8 +1001,11 @@
       <c r="P11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>16</v>
       </c>
@@ -1058,8 +1054,11 @@
       <c r="P12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4</v>
       </c>
@@ -1108,8 +1107,11 @@
       <c r="P13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1158,8 +1160,11 @@
       <c r="P14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4</v>
       </c>
@@ -1208,8 +1213,11 @@
       <c r="P15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>64</v>
       </c>
@@ -1258,8 +1266,11 @@
       <c r="P16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1308,8 +1319,11 @@
       <c r="P17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>256</v>
       </c>
@@ -1358,8 +1372,11 @@
       <c r="P18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
@@ -1408,8 +1425,11 @@
       <c r="P19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>64</v>
       </c>
@@ -1458,8 +1478,11 @@
       <c r="P20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1508,8 +1531,11 @@
       <c r="P21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1558,8 +1584,11 @@
       <c r="P22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>16</v>
       </c>
@@ -1608,8 +1637,11 @@
       <c r="P23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>256</v>
       </c>
@@ -1658,8 +1690,11 @@
       <c r="P24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>64</v>
       </c>
@@ -1708,8 +1743,11 @@
       <c r="P25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>4</v>
       </c>
@@ -1758,8 +1796,11 @@
       <c r="P26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>64</v>
       </c>
@@ -1808,8 +1849,11 @@
       <c r="P27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>256</v>
       </c>
@@ -1858,8 +1902,11 @@
       <c r="P28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1908,8 +1955,11 @@
       <c r="P29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>4</v>
       </c>
@@ -1958,8 +2008,11 @@
       <c r="P30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>16</v>
       </c>
@@ -2008,8 +2061,11 @@
       <c r="P31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>64</v>
       </c>
@@ -2058,8 +2114,11 @@
       <c r="P32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>64</v>
       </c>
@@ -2108,8 +2167,11 @@
       <c r="P33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>256</v>
       </c>
@@ -2158,8 +2220,11 @@
       <c r="P34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>64</v>
       </c>
@@ -2208,8 +2273,11 @@
       <c r="P35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4</v>
       </c>
@@ -2258,8 +2326,11 @@
       <c r="P36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>4</v>
       </c>
@@ -2308,8 +2379,11 @@
       <c r="P37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -2358,8 +2432,11 @@
       <c r="P38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>16</v>
       </c>
@@ -2408,8 +2485,11 @@
       <c r="P39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>4</v>
       </c>
@@ -2458,8 +2538,11 @@
       <c r="P40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>16</v>
       </c>
@@ -2508,8 +2591,11 @@
       <c r="P41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>256</v>
       </c>
@@ -2558,8 +2644,11 @@
       <c r="P42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>4</v>
       </c>
@@ -2608,8 +2697,11 @@
       <c r="P43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>256</v>
       </c>
@@ -2658,8 +2750,11 @@
       <c r="P44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>16</v>
       </c>
@@ -2708,8 +2803,11 @@
       <c r="P45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>16</v>
       </c>
@@ -2758,8 +2856,11 @@
       <c r="P46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>16</v>
       </c>
@@ -2808,8 +2909,11 @@
       <c r="P47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -2858,8 +2962,11 @@
       <c r="P48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>64</v>
       </c>
@@ -2908,8 +3015,11 @@
       <c r="P49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>16</v>
       </c>
@@ -2958,8 +3068,11 @@
       <c r="P50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>16</v>
       </c>
@@ -3008,8 +3121,11 @@
       <c r="P51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>256</v>
       </c>
@@ -3058,8 +3174,11 @@
       <c r="P52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>4</v>
       </c>
@@ -3108,8 +3227,11 @@
       <c r="P53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>16</v>
       </c>
@@ -3158,8 +3280,11 @@
       <c r="P54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>4</v>
       </c>
@@ -3208,8 +3333,11 @@
       <c r="P55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>16</v>
       </c>
@@ -3258,8 +3386,11 @@
       <c r="P56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>64</v>
       </c>
@@ -3308,8 +3439,11 @@
       <c r="P57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>256</v>
       </c>
@@ -3358,8 +3492,11 @@
       <c r="P58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>256</v>
       </c>
@@ -3408,8 +3545,11 @@
       <c r="P59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>4</v>
       </c>
@@ -3458,8 +3598,11 @@
       <c r="P60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>64</v>
       </c>
@@ -3508,8 +3651,11 @@
       <c r="P61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1</v>
       </c>
@@ -3558,8 +3704,11 @@
       <c r="P62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>64</v>
       </c>
@@ -3608,8 +3757,11 @@
       <c r="P63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>16</v>
       </c>
@@ -3658,8 +3810,11 @@
       <c r="P64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>4</v>
       </c>
@@ -3708,8 +3863,11 @@
       <c r="P65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -3758,8 +3916,11 @@
       <c r="P66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>64</v>
       </c>
@@ -3808,8 +3969,11 @@
       <c r="P67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1</v>
       </c>
@@ -3858,8 +4022,11 @@
       <c r="P68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>4</v>
       </c>
@@ -3908,8 +4075,11 @@
       <c r="P69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>16</v>
       </c>
@@ -3958,8 +4128,11 @@
       <c r="P70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>16</v>
       </c>
@@ -4008,8 +4181,11 @@
       <c r="P71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>4</v>
       </c>
@@ -4058,8 +4234,11 @@
       <c r="P72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1</v>
       </c>
@@ -4108,8 +4287,11 @@
       <c r="P73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>4</v>
       </c>
@@ -4158,8 +4340,11 @@
       <c r="P74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>16</v>
       </c>
@@ -4208,8 +4393,11 @@
       <c r="P75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1</v>
       </c>
@@ -4258,8 +4446,11 @@
       <c r="P76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>64</v>
       </c>
@@ -4308,8 +4499,11 @@
       <c r="P77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1</v>
       </c>
@@ -4358,8 +4552,11 @@
       <c r="P78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>4</v>
       </c>
@@ -4408,8 +4605,11 @@
       <c r="P79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>64</v>
       </c>
@@ -4458,8 +4658,11 @@
       <c r="P80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>16</v>
       </c>
@@ -4508,8 +4711,11 @@
       <c r="P81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1</v>
       </c>
@@ -4558,8 +4764,11 @@
       <c r="P82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1</v>
       </c>
@@ -4608,8 +4817,11 @@
       <c r="P83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>64</v>
       </c>
@@ -4658,8 +4870,11 @@
       <c r="P84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>64</v>
       </c>
@@ -4708,8 +4923,11 @@
       <c r="P85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1</v>
       </c>
@@ -4758,8 +4976,11 @@
       <c r="P86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>4</v>
       </c>
@@ -4808,8 +5029,11 @@
       <c r="P87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1</v>
       </c>
@@ -4858,8 +5082,11 @@
       <c r="P88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1</v>
       </c>
@@ -4908,8 +5135,11 @@
       <c r="P89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>4</v>
       </c>
@@ -4958,8 +5188,11 @@
       <c r="P90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1</v>
       </c>
@@ -5008,8 +5241,11 @@
       <c r="P91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1</v>
       </c>
@@ -5058,8 +5294,11 @@
       <c r="P92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>16</v>
       </c>
@@ -5108,8 +5347,11 @@
       <c r="P93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1</v>
       </c>
@@ -5158,8 +5400,11 @@
       <c r="P94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>64</v>
       </c>
@@ -5208,8 +5453,11 @@
       <c r="P95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>256</v>
       </c>
@@ -5258,8 +5506,11 @@
       <c r="P96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>4</v>
       </c>
@@ -5308,8 +5559,11 @@
       <c r="P97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>16</v>
       </c>
@@ -5358,8 +5612,11 @@
       <c r="P98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>256</v>
       </c>
@@ -5408,8 +5665,11 @@
       <c r="P99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>4</v>
       </c>
@@ -5458,8 +5718,11 @@
       <c r="P100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1</v>
       </c>
@@ -5508,8 +5771,11 @@
       <c r="P101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1</v>
       </c>
@@ -5558,8 +5824,11 @@
       <c r="P102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>64</v>
       </c>
@@ -5608,8 +5877,11 @@
       <c r="P103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>4</v>
       </c>
@@ -5658,8 +5930,11 @@
       <c r="P104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>4</v>
       </c>
@@ -5708,8 +5983,11 @@
       <c r="P105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>4</v>
       </c>
@@ -5758,8 +6036,11 @@
       <c r="P106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>64</v>
       </c>
@@ -5808,8 +6089,11 @@
       <c r="P107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>4</v>
       </c>
@@ -5858,8 +6142,11 @@
       <c r="P108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>4</v>
       </c>
@@ -5908,8 +6195,11 @@
       <c r="P109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>256</v>
       </c>
@@ -5958,8 +6248,11 @@
       <c r="P110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1</v>
       </c>
@@ -6008,8 +6301,11 @@
       <c r="P111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>16</v>
       </c>
@@ -6058,8 +6354,11 @@
       <c r="P112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>4</v>
       </c>
@@ -6108,8 +6407,11 @@
       <c r="P113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>64</v>
       </c>
@@ -6158,8 +6460,11 @@
       <c r="P114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>16</v>
       </c>
@@ -6208,8 +6513,11 @@
       <c r="P115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>64</v>
       </c>
@@ -6258,8 +6566,11 @@
       <c r="P116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>16</v>
       </c>
@@ -6308,8 +6619,11 @@
       <c r="P117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>4</v>
       </c>
@@ -6358,8 +6672,11 @@
       <c r="P118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>64</v>
       </c>
@@ -6408,8 +6725,11 @@
       <c r="P119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>256</v>
       </c>
@@ -6458,8 +6778,11 @@
       <c r="P120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>4</v>
       </c>
@@ -6508,8 +6831,11 @@
       <c r="P121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>4</v>
       </c>
@@ -6558,8 +6884,11 @@
       <c r="P122">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1</v>
       </c>
@@ -6608,8 +6937,11 @@
       <c r="P123">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>64</v>
       </c>
@@ -6658,8 +6990,11 @@
       <c r="P124">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>64</v>
       </c>
@@ -6708,8 +7043,11 @@
       <c r="P125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>256</v>
       </c>
@@ -6758,8 +7096,11 @@
       <c r="P126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>4</v>
       </c>
@@ -6808,8 +7149,11 @@
       <c r="P127">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1</v>
       </c>
@@ -6858,8 +7202,11 @@
       <c r="P128">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1</v>
       </c>
@@ -6908,8 +7255,11 @@
       <c r="P129">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>64</v>
       </c>
@@ -6958,8 +7308,11 @@
       <c r="P130">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>64</v>
       </c>
@@ -7008,8 +7361,11 @@
       <c r="P131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1</v>
       </c>
@@ -7058,8 +7414,11 @@
       <c r="P132">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>16</v>
       </c>
@@ -7108,8 +7467,11 @@
       <c r="P133">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>256</v>
       </c>
@@ -7158,8 +7520,11 @@
       <c r="P134">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>16</v>
       </c>
@@ -7208,8 +7573,11 @@
       <c r="P135">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>64</v>
       </c>
@@ -7258,8 +7626,11 @@
       <c r="P136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>1</v>
       </c>
@@ -7308,8 +7679,11 @@
       <c r="P137">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>16</v>
       </c>
@@ -7358,8 +7732,11 @@
       <c r="P138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>16</v>
       </c>
@@ -7408,8 +7785,11 @@
       <c r="P139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>16</v>
       </c>
@@ -7458,8 +7838,11 @@
       <c r="P140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>256</v>
       </c>
@@ -7508,8 +7891,11 @@
       <c r="P141">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>4</v>
       </c>
@@ -7558,8 +7944,11 @@
       <c r="P142">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>64</v>
       </c>
@@ -7608,8 +7997,11 @@
       <c r="P143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>1</v>
       </c>
@@ -7658,8 +8050,11 @@
       <c r="P144">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>4</v>
       </c>
@@ -7708,8 +8103,11 @@
       <c r="P145">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>64</v>
       </c>
@@ -7758,8 +8156,11 @@
       <c r="P146">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>64</v>
       </c>
@@ -7808,8 +8209,11 @@
       <c r="P147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>4</v>
       </c>
@@ -7858,8 +8262,11 @@
       <c r="P148">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>256</v>
       </c>
@@ -7908,8 +8315,11 @@
       <c r="P149">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>256</v>
       </c>
@@ -7958,8 +8368,11 @@
       <c r="P150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1</v>
       </c>
@@ -8008,8 +8421,11 @@
       <c r="P151">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>64</v>
       </c>
@@ -8058,8 +8474,11 @@
       <c r="P152">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>1</v>
       </c>
@@ -8108,8 +8527,11 @@
       <c r="P153">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>16</v>
       </c>
@@ -8158,8 +8580,11 @@
       <c r="P154">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>64</v>
       </c>
@@ -8208,8 +8633,11 @@
       <c r="P155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>64</v>
       </c>
@@ -8258,8 +8686,11 @@
       <c r="P156">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>16</v>
       </c>
@@ -8308,8 +8739,11 @@
       <c r="P157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>4</v>
       </c>
@@ -8358,8 +8792,11 @@
       <c r="P158">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>256</v>
       </c>
@@ -8408,8 +8845,11 @@
       <c r="P159">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>16</v>
       </c>
@@ -8458,8 +8898,11 @@
       <c r="P160">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>256</v>
       </c>
@@ -8508,8 +8951,11 @@
       <c r="P161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>16</v>
       </c>
@@ -8558,8 +9004,11 @@
       <c r="P162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>16</v>
       </c>
@@ -8608,8 +9057,11 @@
       <c r="P163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>1</v>
       </c>
@@ -8658,8 +9110,11 @@
       <c r="P164">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1</v>
       </c>
@@ -8708,8 +9163,11 @@
       <c r="P165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>256</v>
       </c>
@@ -8758,8 +9216,11 @@
       <c r="P166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1</v>
       </c>
@@ -8808,8 +9269,11 @@
       <c r="P167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>256</v>
       </c>
@@ -8858,8 +9322,11 @@
       <c r="P168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>256</v>
       </c>
@@ -8908,8 +9375,11 @@
       <c r="P169">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>1</v>
       </c>
@@ -8958,8 +9428,11 @@
       <c r="P170">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>64</v>
       </c>
@@ -9008,8 +9481,11 @@
       <c r="P171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>1</v>
       </c>
@@ -9058,8 +9534,11 @@
       <c r="P172">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>256</v>
       </c>
@@ -9108,8 +9587,11 @@
       <c r="P173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>4</v>
       </c>
@@ -9158,8 +9640,11 @@
       <c r="P174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>256</v>
       </c>
@@ -9208,8 +9693,11 @@
       <c r="P175">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>64</v>
       </c>
@@ -9258,8 +9746,11 @@
       <c r="P176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>4</v>
       </c>
@@ -9308,8 +9799,11 @@
       <c r="P177">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1</v>
       </c>
@@ -9358,8 +9852,11 @@
       <c r="P178">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>64</v>
       </c>
@@ -9408,8 +9905,11 @@
       <c r="P179">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>1</v>
       </c>
@@ -9458,8 +9958,11 @@
       <c r="P180">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>1</v>
       </c>
@@ -9508,8 +10011,11 @@
       <c r="P181">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>16</v>
       </c>
@@ -9558,8 +10064,11 @@
       <c r="P182">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>16</v>
       </c>
@@ -9608,8 +10117,11 @@
       <c r="P183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>16</v>
       </c>
@@ -9658,8 +10170,11 @@
       <c r="P184">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>4</v>
       </c>
@@ -9708,8 +10223,11 @@
       <c r="P185">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>1</v>
       </c>
@@ -9758,8 +10276,11 @@
       <c r="P186">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>1</v>
       </c>
@@ -9808,8 +10329,11 @@
       <c r="P187">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>1</v>
       </c>
@@ -9858,8 +10382,11 @@
       <c r="P188">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>16</v>
       </c>
@@ -9908,8 +10435,11 @@
       <c r="P189">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1</v>
       </c>
@@ -9958,8 +10488,11 @@
       <c r="P190">
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>64</v>
       </c>
@@ -10008,8 +10541,11 @@
       <c r="P191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>64</v>
       </c>
@@ -10058,8 +10594,11 @@
       <c r="P192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>64</v>
       </c>
@@ -10108,8 +10647,11 @@
       <c r="P193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>64</v>
       </c>
@@ -10158,8 +10700,11 @@
       <c r="P194">
         <v>1</v>
       </c>
-    </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1</v>
       </c>
@@ -10208,8 +10753,11 @@
       <c r="P195">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>4</v>
       </c>
@@ -10258,8 +10806,11 @@
       <c r="P196">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>16</v>
       </c>
@@ -10308,8 +10859,11 @@
       <c r="P197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1</v>
       </c>
@@ -10358,8 +10912,11 @@
       <c r="P198">
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>1</v>
       </c>
@@ -10408,8 +10965,11 @@
       <c r="P199">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>4</v>
       </c>
@@ -10458,8 +11018,11 @@
       <c r="P200">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>4</v>
       </c>
@@ -10508,8 +11071,11 @@
       <c r="P201">
         <v>1</v>
       </c>
-    </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1</v>
       </c>
@@ -10558,8 +11124,11 @@
       <c r="P202">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>256</v>
       </c>
@@ -10608,8 +11177,11 @@
       <c r="P203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>1</v>
       </c>
@@ -10658,8 +11230,11 @@
       <c r="P204">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>4</v>
       </c>
@@ -10708,8 +11283,11 @@
       <c r="P205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>64</v>
       </c>
@@ -10758,8 +11336,11 @@
       <c r="P206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>1</v>
       </c>
@@ -10808,8 +11389,11 @@
       <c r="P207">
         <v>1</v>
       </c>
-    </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>256</v>
       </c>
@@ -10858,8 +11442,11 @@
       <c r="P208">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>256</v>
       </c>
@@ -10908,8 +11495,11 @@
       <c r="P209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>256</v>
       </c>
@@ -10958,8 +11548,11 @@
       <c r="P210">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>16</v>
       </c>
@@ -11008,8 +11601,11 @@
       <c r="P211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>16</v>
       </c>
@@ -11058,8 +11654,11 @@
       <c r="P212">
         <v>1</v>
       </c>
-    </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>4</v>
       </c>
@@ -11108,8 +11707,11 @@
       <c r="P213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>1</v>
       </c>
@@ -11158,8 +11760,11 @@
       <c r="P214">
         <v>1</v>
       </c>
-    </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>4</v>
       </c>
@@ -11208,8 +11813,11 @@
       <c r="P215">
         <v>1</v>
       </c>
-    </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>4</v>
       </c>
@@ -11258,8 +11866,11 @@
       <c r="P216">
         <v>1</v>
       </c>
-    </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>256</v>
       </c>
@@ -11308,8 +11919,11 @@
       <c r="P217">
         <v>1</v>
       </c>
-    </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>64</v>
       </c>
@@ -11358,8 +11972,11 @@
       <c r="P218">
         <v>1</v>
       </c>
-    </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>4</v>
       </c>
@@ -11408,8 +12025,11 @@
       <c r="P219">
         <v>1</v>
       </c>
-    </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>4</v>
       </c>
@@ -11458,8 +12078,11 @@
       <c r="P220">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>4</v>
       </c>
@@ -11508,8 +12131,11 @@
       <c r="P221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>1</v>
       </c>
@@ -11558,8 +12184,11 @@
       <c r="P222">
         <v>1</v>
       </c>
-    </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>64</v>
       </c>
@@ -11608,8 +12237,11 @@
       <c r="P223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>16</v>
       </c>
@@ -11658,8 +12290,11 @@
       <c r="P224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>4</v>
       </c>
@@ -11708,8 +12343,11 @@
       <c r="P225">
         <v>1</v>
       </c>
-    </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>16</v>
       </c>
@@ -11758,8 +12396,11 @@
       <c r="P226">
         <v>1</v>
       </c>
-    </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>256</v>
       </c>
@@ -11808,8 +12449,11 @@
       <c r="P227">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>256</v>
       </c>
@@ -11858,8 +12502,11 @@
       <c r="P228">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>1</v>
       </c>
@@ -11908,8 +12555,11 @@
       <c r="P229">
         <v>1</v>
       </c>
-    </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>16</v>
       </c>
@@ -11958,8 +12608,11 @@
       <c r="P230">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>16</v>
       </c>
@@ -12008,8 +12661,11 @@
       <c r="P231">
         <v>1</v>
       </c>
-    </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>1</v>
       </c>
@@ -12058,8 +12714,11 @@
       <c r="P232">
         <v>1</v>
       </c>
-    </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>64</v>
       </c>
@@ -12108,8 +12767,11 @@
       <c r="P233">
         <v>1</v>
       </c>
-    </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>1</v>
       </c>
@@ -12158,8 +12820,11 @@
       <c r="P234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>256</v>
       </c>
@@ -12208,8 +12873,11 @@
       <c r="P235">
         <v>1</v>
       </c>
-    </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>4</v>
       </c>
@@ -12258,8 +12926,11 @@
       <c r="P236">
         <v>1</v>
       </c>
-    </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>64</v>
       </c>
@@ -12308,8 +12979,11 @@
       <c r="P237">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>256</v>
       </c>
@@ -12358,8 +13032,11 @@
       <c r="P238">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>256</v>
       </c>
@@ -12408,8 +13085,11 @@
       <c r="P239">
         <v>1</v>
       </c>
-    </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>16</v>
       </c>
@@ -12458,8 +13138,11 @@
       <c r="P240">
         <v>1</v>
       </c>
-    </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>4</v>
       </c>
@@ -12508,8 +13191,11 @@
       <c r="P241">
         <v>1</v>
       </c>
-    </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>16</v>
       </c>
@@ -12558,8 +13244,11 @@
       <c r="P242">
         <v>1</v>
       </c>
-    </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>64</v>
       </c>
@@ -12608,8 +13297,11 @@
       <c r="P243">
         <v>1</v>
       </c>
-    </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>256</v>
       </c>
@@ -12658,8 +13350,11 @@
       <c r="P244">
         <v>1</v>
       </c>
-    </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>64</v>
       </c>
@@ -12708,8 +13403,11 @@
       <c r="P245">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>256</v>
       </c>
@@ -12758,8 +13456,11 @@
       <c r="P246">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>256</v>
       </c>
@@ -12808,8 +13509,11 @@
       <c r="P247">
         <v>1</v>
       </c>
-    </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>1</v>
       </c>
@@ -12858,8 +13562,11 @@
       <c r="P248">
         <v>1</v>
       </c>
-    </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>256</v>
       </c>
@@ -12908,8 +13615,11 @@
       <c r="P249">
         <v>1</v>
       </c>
-    </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>16</v>
       </c>
@@ -12958,8 +13668,11 @@
       <c r="P250">
         <v>1</v>
       </c>
-    </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>64</v>
       </c>
@@ -13008,8 +13721,11 @@
       <c r="P251">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>64</v>
       </c>
@@ -13058,8 +13774,11 @@
       <c r="P252">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>256</v>
       </c>
@@ -13108,8 +13827,11 @@
       <c r="P253">
         <v>1</v>
       </c>
-    </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>64</v>
       </c>
@@ -13158,8 +13880,11 @@
       <c r="P254">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>64</v>
       </c>
@@ -13208,8 +13933,11 @@
       <c r="P255">
         <v>1</v>
       </c>
-    </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>256</v>
       </c>
@@ -13258,8 +13986,11 @@
       <c r="P256">
         <v>1</v>
       </c>
-    </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>4</v>
       </c>
@@ -13308,8 +14039,11 @@
       <c r="P257">
         <v>1</v>
       </c>
-    </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>256</v>
       </c>
@@ -13358,8 +14092,11 @@
       <c r="P258">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>1</v>
       </c>
@@ -13408,8 +14145,11 @@
       <c r="P259">
         <v>1</v>
       </c>
-    </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>4</v>
       </c>
@@ -13458,8 +14198,11 @@
       <c r="P260">
         <v>1</v>
       </c>
-    </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>1</v>
       </c>
@@ -13508,8 +14251,11 @@
       <c r="P261">
         <v>1</v>
       </c>
-    </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>4</v>
       </c>
@@ -13558,8 +14304,11 @@
       <c r="P262">
         <v>1</v>
       </c>
-    </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>64</v>
       </c>
@@ -13608,8 +14357,11 @@
       <c r="P263">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>64</v>
       </c>
@@ -13658,8 +14410,11 @@
       <c r="P264">
         <v>1</v>
       </c>
-    </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>1</v>
       </c>
@@ -13708,8 +14463,11 @@
       <c r="P265">
         <v>1</v>
       </c>
-    </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>256</v>
       </c>
@@ -13758,8 +14516,11 @@
       <c r="P266">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>4</v>
       </c>
@@ -13808,8 +14569,11 @@
       <c r="P267">
         <v>1</v>
       </c>
-    </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>1</v>
       </c>
@@ -13858,8 +14622,11 @@
       <c r="P268">
         <v>1</v>
       </c>
-    </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>256</v>
       </c>
@@ -13908,8 +14675,11 @@
       <c r="P269">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>64</v>
       </c>
@@ -13958,8 +14728,11 @@
       <c r="P270">
         <v>1</v>
       </c>
-    </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>256</v>
       </c>
@@ -14008,8 +14781,11 @@
       <c r="P271">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>256</v>
       </c>
@@ -14058,8 +14834,11 @@
       <c r="P272">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>4</v>
       </c>
@@ -14108,8 +14887,11 @@
       <c r="P273">
         <v>1</v>
       </c>
-    </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>16</v>
       </c>
@@ -14158,8 +14940,11 @@
       <c r="P274">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>16</v>
       </c>
@@ -14208,8 +14993,11 @@
       <c r="P275">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>16</v>
       </c>
@@ -14258,8 +15046,11 @@
       <c r="P276">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>256</v>
       </c>
@@ -14308,8 +15099,11 @@
       <c r="P277">
         <v>1</v>
       </c>
-    </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>4</v>
       </c>
@@ -14358,8 +15152,11 @@
       <c r="P278">
         <v>1</v>
       </c>
-    </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>256</v>
       </c>
@@ -14408,8 +15205,11 @@
       <c r="P279">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>256</v>
       </c>
@@ -14458,8 +15258,11 @@
       <c r="P280">
         <v>1</v>
       </c>
-    </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>16</v>
       </c>
@@ -14508,8 +15311,11 @@
       <c r="P281">
         <v>1</v>
       </c>
-    </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>1</v>
       </c>
@@ -14558,8 +15364,11 @@
       <c r="P282">
         <v>1</v>
       </c>
-    </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>64</v>
       </c>
@@ -14608,8 +15417,11 @@
       <c r="P283">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>4</v>
       </c>
@@ -14658,8 +15470,11 @@
       <c r="P284">
         <v>1</v>
       </c>
-    </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>1</v>
       </c>
@@ -14708,8 +15523,11 @@
       <c r="P285">
         <v>1</v>
       </c>
-    </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>4</v>
       </c>
@@ -14758,8 +15576,11 @@
       <c r="P286">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>4</v>
       </c>
@@ -14808,8 +15629,11 @@
       <c r="P287">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>16</v>
       </c>
@@ -14858,8 +15682,11 @@
       <c r="P288">
         <v>1</v>
       </c>
-    </row>
-    <row r="289" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>256</v>
       </c>
@@ -14908,8 +15735,11 @@
       <c r="P289">
         <v>1</v>
       </c>
-    </row>
-    <row r="290" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>256</v>
       </c>
@@ -14958,8 +15788,11 @@
       <c r="P290">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>4</v>
       </c>
@@ -15008,8 +15841,11 @@
       <c r="P291">
         <v>1</v>
       </c>
-    </row>
-    <row r="292" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>256</v>
       </c>
@@ -15058,8 +15894,11 @@
       <c r="P292">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>1</v>
       </c>
@@ -15108,8 +15947,11 @@
       <c r="P293">
         <v>1</v>
       </c>
-    </row>
-    <row r="294" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>16</v>
       </c>
@@ -15158,8 +16000,11 @@
       <c r="P294">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>1</v>
       </c>
@@ -15208,8 +16053,11 @@
       <c r="P295">
         <v>1</v>
       </c>
-    </row>
-    <row r="296" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>256</v>
       </c>
@@ -15258,8 +16106,11 @@
       <c r="P296">
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>1</v>
       </c>
@@ -15308,8 +16159,11 @@
       <c r="P297">
         <v>1</v>
       </c>
-    </row>
-    <row r="298" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>64</v>
       </c>
@@ -15358,8 +16212,11 @@
       <c r="P298">
         <v>1</v>
       </c>
-    </row>
-    <row r="299" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>64</v>
       </c>
@@ -15408,8 +16265,11 @@
       <c r="P299">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>64</v>
       </c>
@@ -15458,8 +16318,11 @@
       <c r="P300">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>64</v>
       </c>
@@ -15508,8 +16371,11 @@
       <c r="P301">
         <v>1</v>
       </c>
-    </row>
-    <row r="302" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>256</v>
       </c>
@@ -15558,8 +16424,11 @@
       <c r="P302">
         <v>1</v>
       </c>
-    </row>
-    <row r="303" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>1</v>
       </c>
@@ -15608,8 +16477,11 @@
       <c r="P303">
         <v>1</v>
       </c>
-    </row>
-    <row r="304" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>4</v>
       </c>
@@ -15658,8 +16530,11 @@
       <c r="P304">
         <v>1</v>
       </c>
-    </row>
-    <row r="305" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>16</v>
       </c>
@@ -15708,8 +16583,11 @@
       <c r="P305">
         <v>0</v>
       </c>
-    </row>
-    <row r="306" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>4</v>
       </c>
@@ -15758,8 +16636,11 @@
       <c r="P306">
         <v>1</v>
       </c>
-    </row>
-    <row r="307" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>4</v>
       </c>
@@ -15808,8 +16689,11 @@
       <c r="P307">
         <v>0</v>
       </c>
-    </row>
-    <row r="308" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>256</v>
       </c>
@@ -15858,8 +16742,11 @@
       <c r="P308">
         <v>1</v>
       </c>
-    </row>
-    <row r="309" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>64</v>
       </c>
@@ -15908,8 +16795,11 @@
       <c r="P309">
         <v>0</v>
       </c>
-    </row>
-    <row r="310" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>1</v>
       </c>
@@ -15958,8 +16848,11 @@
       <c r="P310">
         <v>1</v>
       </c>
-    </row>
-    <row r="311" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>256</v>
       </c>
@@ -16008,8 +16901,11 @@
       <c r="P311">
         <v>0</v>
       </c>
-    </row>
-    <row r="312" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>256</v>
       </c>
@@ -16058,8 +16954,11 @@
       <c r="P312">
         <v>1</v>
       </c>
-    </row>
-    <row r="313" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>16</v>
       </c>
@@ -16108,8 +17007,11 @@
       <c r="P313">
         <v>1</v>
       </c>
-    </row>
-    <row r="314" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>64</v>
       </c>
@@ -16158,8 +17060,11 @@
       <c r="P314">
         <v>1</v>
       </c>
-    </row>
-    <row r="315" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>64</v>
       </c>
@@ -16208,8 +17113,11 @@
       <c r="P315">
         <v>1</v>
       </c>
-    </row>
-    <row r="316" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>4</v>
       </c>
@@ -16258,8 +17166,11 @@
       <c r="P316">
         <v>1</v>
       </c>
-    </row>
-    <row r="317" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>16</v>
       </c>
@@ -16308,8 +17219,11 @@
       <c r="P317">
         <v>1</v>
       </c>
-    </row>
-    <row r="318" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>256</v>
       </c>
@@ -16358,8 +17272,11 @@
       <c r="P318">
         <v>1</v>
       </c>
-    </row>
-    <row r="319" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>1</v>
       </c>
@@ -16408,8 +17325,11 @@
       <c r="P319">
         <v>1</v>
       </c>
-    </row>
-    <row r="320" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>64</v>
       </c>
@@ -16458,8 +17378,11 @@
       <c r="P320">
         <v>1</v>
       </c>
-    </row>
-    <row r="321" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>4</v>
       </c>
@@ -16508,8 +17431,11 @@
       <c r="P321">
         <v>1</v>
       </c>
-    </row>
-    <row r="322" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>4</v>
       </c>
@@ -16558,8 +17484,11 @@
       <c r="P322">
         <v>0</v>
       </c>
-    </row>
-    <row r="323" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>64</v>
       </c>
@@ -16608,8 +17537,11 @@
       <c r="P323">
         <v>0</v>
       </c>
-    </row>
-    <row r="324" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>16</v>
       </c>
@@ -16658,8 +17590,11 @@
       <c r="P324">
         <v>1</v>
       </c>
-    </row>
-    <row r="325" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>16</v>
       </c>
@@ -16708,8 +17643,11 @@
       <c r="P325">
         <v>1</v>
       </c>
-    </row>
-    <row r="326" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>16</v>
       </c>
@@ -16758,8 +17696,11 @@
       <c r="P326">
         <v>1</v>
       </c>
-    </row>
-    <row r="327" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>1</v>
       </c>
@@ -16808,8 +17749,11 @@
       <c r="P327">
         <v>1</v>
       </c>
-    </row>
-    <row r="328" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>1</v>
       </c>
@@ -16858,8 +17802,11 @@
       <c r="P328">
         <v>1</v>
       </c>
-    </row>
-    <row r="329" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>16</v>
       </c>
@@ -16908,8 +17855,11 @@
       <c r="P329">
         <v>0</v>
       </c>
-    </row>
-    <row r="330" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>256</v>
       </c>
@@ -16958,8 +17908,11 @@
       <c r="P330">
         <v>1</v>
       </c>
-    </row>
-    <row r="331" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>64</v>
       </c>
@@ -17008,8 +17961,11 @@
       <c r="P331">
         <v>1</v>
       </c>
-    </row>
-    <row r="332" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>64</v>
       </c>
@@ -17058,8 +18014,11 @@
       <c r="P332">
         <v>1</v>
       </c>
-    </row>
-    <row r="333" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>1</v>
       </c>
@@ -17108,8 +18067,11 @@
       <c r="P333">
         <v>1</v>
       </c>
-    </row>
-    <row r="334" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>256</v>
       </c>
@@ -17158,8 +18120,11 @@
       <c r="P334">
         <v>1</v>
       </c>
-    </row>
-    <row r="335" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>4</v>
       </c>
@@ -17208,8 +18173,11 @@
       <c r="P335">
         <v>1</v>
       </c>
-    </row>
-    <row r="336" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>1</v>
       </c>
@@ -17258,8 +18226,11 @@
       <c r="P336">
         <v>1</v>
       </c>
-    </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>4</v>
       </c>
@@ -17308,8 +18279,11 @@
       <c r="P337">
         <v>1</v>
       </c>
-    </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>4</v>
       </c>
@@ -17358,8 +18332,11 @@
       <c r="P338">
         <v>1</v>
       </c>
-    </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>16</v>
       </c>
@@ -17408,8 +18385,11 @@
       <c r="P339">
         <v>1</v>
       </c>
-    </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>16</v>
       </c>
@@ -17458,8 +18438,11 @@
       <c r="P340">
         <v>0</v>
       </c>
-    </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>64</v>
       </c>
@@ -17508,8 +18491,11 @@
       <c r="P341">
         <v>1</v>
       </c>
-    </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>256</v>
       </c>
@@ -17558,8 +18544,11 @@
       <c r="P342">
         <v>0</v>
       </c>
-    </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>256</v>
       </c>
@@ -17608,8 +18597,11 @@
       <c r="P343">
         <v>0</v>
       </c>
-    </row>
-    <row r="344" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>256</v>
       </c>
@@ -17658,8 +18650,11 @@
       <c r="P344">
         <v>0</v>
       </c>
-    </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>16</v>
       </c>
@@ -17708,8 +18703,11 @@
       <c r="P345">
         <v>0</v>
       </c>
-    </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>16</v>
       </c>
@@ -17758,8 +18756,11 @@
       <c r="P346">
         <v>1</v>
       </c>
-    </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>64</v>
       </c>
@@ -17808,8 +18809,11 @@
       <c r="P347">
         <v>1</v>
       </c>
-    </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>16</v>
       </c>
@@ -17858,8 +18862,11 @@
       <c r="P348">
         <v>1</v>
       </c>
-    </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>64</v>
       </c>
@@ -17908,8 +18915,11 @@
       <c r="P349">
         <v>1</v>
       </c>
-    </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>1</v>
       </c>
@@ -17958,8 +18968,11 @@
       <c r="P350">
         <v>1</v>
       </c>
-    </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>256</v>
       </c>
@@ -18008,8 +19021,11 @@
       <c r="P351">
         <v>1</v>
       </c>
-    </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>1</v>
       </c>
@@ -18058,8 +19074,11 @@
       <c r="P352">
         <v>1</v>
       </c>
-    </row>
-    <row r="353" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>4</v>
       </c>
@@ -18108,8 +19127,11 @@
       <c r="P353">
         <v>1</v>
       </c>
-    </row>
-    <row r="354" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>64</v>
       </c>
@@ -18158,8 +19180,11 @@
       <c r="P354">
         <v>0</v>
       </c>
-    </row>
-    <row r="355" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>256</v>
       </c>
@@ -18208,8 +19233,11 @@
       <c r="P355">
         <v>1</v>
       </c>
-    </row>
-    <row r="356" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>1</v>
       </c>
@@ -18258,8 +19286,11 @@
       <c r="P356">
         <v>1</v>
       </c>
-    </row>
-    <row r="357" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>4</v>
       </c>
@@ -18308,8 +19339,11 @@
       <c r="P357">
         <v>1</v>
       </c>
-    </row>
-    <row r="358" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>256</v>
       </c>
@@ -18358,8 +19392,11 @@
       <c r="P358">
         <v>1</v>
       </c>
-    </row>
-    <row r="359" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>64</v>
       </c>
@@ -18408,8 +19445,11 @@
       <c r="P359">
         <v>1</v>
       </c>
-    </row>
-    <row r="360" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>16</v>
       </c>
@@ -18458,8 +19498,11 @@
       <c r="P360">
         <v>1</v>
       </c>
-    </row>
-    <row r="361" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>4</v>
       </c>
@@ -18508,8 +19551,11 @@
       <c r="P361">
         <v>1</v>
       </c>
-    </row>
-    <row r="362" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>256</v>
       </c>
@@ -18558,8 +19604,11 @@
       <c r="P362">
         <v>1</v>
       </c>
-    </row>
-    <row r="363" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>1</v>
       </c>
@@ -18608,8 +19657,11 @@
       <c r="P363">
         <v>0</v>
       </c>
-    </row>
-    <row r="364" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>16</v>
       </c>
@@ -18658,8 +19710,11 @@
       <c r="P364">
         <v>1</v>
       </c>
-    </row>
-    <row r="365" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>16</v>
       </c>
@@ -18708,8 +19763,11 @@
       <c r="P365">
         <v>1</v>
       </c>
-    </row>
-    <row r="366" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>16</v>
       </c>
@@ -18758,8 +19816,11 @@
       <c r="P366">
         <v>0</v>
       </c>
-    </row>
-    <row r="367" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>256</v>
       </c>
@@ -18808,8 +19869,11 @@
       <c r="P367">
         <v>0</v>
       </c>
-    </row>
-    <row r="368" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>1</v>
       </c>
@@ -18858,8 +19922,11 @@
       <c r="P368">
         <v>1</v>
       </c>
-    </row>
-    <row r="369" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>256</v>
       </c>
@@ -18908,8 +19975,11 @@
       <c r="P369">
         <v>1</v>
       </c>
-    </row>
-    <row r="370" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>1</v>
       </c>
@@ -18958,8 +20028,11 @@
       <c r="P370">
         <v>0</v>
       </c>
-    </row>
-    <row r="371" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>16</v>
       </c>
@@ -19008,8 +20081,11 @@
       <c r="P371">
         <v>1</v>
       </c>
-    </row>
-    <row r="372" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>4</v>
       </c>
@@ -19058,8 +20134,11 @@
       <c r="P372">
         <v>0</v>
       </c>
-    </row>
-    <row r="373" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>16</v>
       </c>
@@ -19108,8 +20187,11 @@
       <c r="P373">
         <v>1</v>
       </c>
-    </row>
-    <row r="374" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>256</v>
       </c>
@@ -19158,8 +20240,11 @@
       <c r="P374">
         <v>0</v>
       </c>
-    </row>
-    <row r="375" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>16</v>
       </c>
@@ -19208,8 +20293,11 @@
       <c r="P375">
         <v>0</v>
       </c>
-    </row>
-    <row r="376" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>4</v>
       </c>
@@ -19258,8 +20346,11 @@
       <c r="P376">
         <v>1</v>
       </c>
-    </row>
-    <row r="377" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>16</v>
       </c>
@@ -19308,8 +20399,11 @@
       <c r="P377">
         <v>1</v>
       </c>
-    </row>
-    <row r="378" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>64</v>
       </c>
@@ -19358,8 +20452,11 @@
       <c r="P378">
         <v>1</v>
       </c>
-    </row>
-    <row r="379" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>16</v>
       </c>
@@ -19408,8 +20505,11 @@
       <c r="P379">
         <v>1</v>
       </c>
-    </row>
-    <row r="380" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>4</v>
       </c>
@@ -19458,8 +20558,11 @@
       <c r="P380">
         <v>1</v>
       </c>
-    </row>
-    <row r="381" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>16</v>
       </c>
@@ -19508,8 +20611,11 @@
       <c r="P381">
         <v>1</v>
       </c>
-    </row>
-    <row r="382" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>256</v>
       </c>
@@ -19558,8 +20664,11 @@
       <c r="P382">
         <v>0</v>
       </c>
-    </row>
-    <row r="383" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>64</v>
       </c>
@@ -19608,8 +20717,11 @@
       <c r="P383">
         <v>1</v>
       </c>
-    </row>
-    <row r="384" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>64</v>
       </c>
@@ -19658,8 +20770,11 @@
       <c r="P384">
         <v>1</v>
       </c>
-    </row>
-    <row r="385" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>256</v>
       </c>
@@ -19708,8 +20823,11 @@
       <c r="P385">
         <v>1</v>
       </c>
-    </row>
-    <row r="386" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>256</v>
       </c>
@@ -19758,8 +20876,11 @@
       <c r="P386">
         <v>1</v>
       </c>
-    </row>
-    <row r="387" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>256</v>
       </c>
@@ -19808,8 +20929,11 @@
       <c r="P387">
         <v>1</v>
       </c>
-    </row>
-    <row r="388" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>256</v>
       </c>
@@ -19858,8 +20982,11 @@
       <c r="P388">
         <v>1</v>
       </c>
-    </row>
-    <row r="389" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>4</v>
       </c>
@@ -19908,8 +21035,11 @@
       <c r="P389">
         <v>0</v>
       </c>
-    </row>
-    <row r="390" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>64</v>
       </c>
@@ -19958,8 +21088,11 @@
       <c r="P390">
         <v>1</v>
       </c>
-    </row>
-    <row r="391" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>64</v>
       </c>
@@ -20008,8 +21141,11 @@
       <c r="P391">
         <v>1</v>
       </c>
-    </row>
-    <row r="392" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>4</v>
       </c>
@@ -20058,8 +21194,11 @@
       <c r="P392">
         <v>0</v>
       </c>
-    </row>
-    <row r="393" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>16</v>
       </c>
@@ -20108,8 +21247,11 @@
       <c r="P393">
         <v>1</v>
       </c>
-    </row>
-    <row r="394" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>256</v>
       </c>
@@ -20158,8 +21300,11 @@
       <c r="P394">
         <v>0</v>
       </c>
-    </row>
-    <row r="395" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>16</v>
       </c>
@@ -20208,8 +21353,11 @@
       <c r="P395">
         <v>0</v>
       </c>
-    </row>
-    <row r="396" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>1</v>
       </c>
@@ -20258,8 +21406,11 @@
       <c r="P396">
         <v>1</v>
       </c>
-    </row>
-    <row r="397" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>64</v>
       </c>
@@ -20308,8 +21459,11 @@
       <c r="P397">
         <v>0</v>
       </c>
-    </row>
-    <row r="398" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>1</v>
       </c>
@@ -20358,8 +21512,11 @@
       <c r="P398">
         <v>1</v>
       </c>
-    </row>
-    <row r="399" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>256</v>
       </c>
@@ -20408,8 +21565,11 @@
       <c r="P399">
         <v>1</v>
       </c>
-    </row>
-    <row r="400" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>4</v>
       </c>
@@ -20458,8 +21618,11 @@
       <c r="P400">
         <v>1</v>
       </c>
-    </row>
-    <row r="401" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>64</v>
       </c>
@@ -20507,6 +21670,9 @@
       </c>
       <c r="P401">
         <v>0</v>
+      </c>
+      <c r="Q401">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -20515,7 +21681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -20527,7 +21693,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
